--- a/data/trans_bre/P7B_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P7B_R-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -641,17 +641,17 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>4,34</t>
+          <t>4,36</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,58</t>
+          <t>2,94</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>4,34</t>
+          <t>4,93</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -661,27 +661,27 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>6,96%</t>
+          <t>6,97%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>14,1%</t>
+          <t>14,13%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>8,13%</t>
+          <t>9,41%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>14,7%</t>
+          <t>16,94%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>2,05%</t>
+          <t>2,06%</t>
         </is>
       </c>
     </row>
@@ -694,52 +694,52 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,14; 7,05</t>
+          <t>-2,94; 7,12</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,46; 9,82</t>
+          <t>-1,34; 9,81</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,54; 7,23</t>
+          <t>-2,51; 7,89</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 9,24</t>
+          <t>-0,7; 9,43</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-3,94; 5,97</t>
+          <t>-3,89; 5,93</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-9,5; 23,45</t>
+          <t>-8,19; 24,61</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-4,83; 36,45</t>
+          <t>-3,71; 35,59</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-7,37; 24,67</t>
+          <t>-7,26; 27,71</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-3,01; 34,83</t>
+          <t>-2,17; 36,4</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>-11,89; 20,74</t>
+          <t>-11,44; 20,61</t>
         </is>
       </c>
     </row>
@@ -761,22 +761,22 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>0,88</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>5,4</t>
+          <t>5,32</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>5,5</t>
+          <t>4,93</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>3,95</t>
+          <t>3,94</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -786,22 +786,22 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,08%</t>
+          <t>2,38%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>15,74%</t>
+          <t>15,55%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>16,78%</t>
+          <t>14,89%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>10,69%</t>
+          <t>10,67%</t>
         </is>
       </c>
     </row>
@@ -814,52 +814,52 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-5,63; 6,26</t>
+          <t>-6,77; 5,58</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-7,37; 6,99</t>
+          <t>-6,65; 7,79</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 11,33</t>
+          <t>-1,31; 10,97</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,0; 11,31</t>
+          <t>-1,4; 11,14</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-6,71; 13,92</t>
+          <t>-6,36; 13,6</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-14,09; 19,1</t>
+          <t>-16,69; 16,94</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-17,44; 21,02</t>
+          <t>-15,98; 23,51</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-2,16; 37,49</t>
+          <t>-3,48; 35,38</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-2,74; 39,48</t>
+          <t>-4,49; 36,43</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>-15,97; 44,03</t>
+          <t>-14,91; 43,31</t>
         </is>
       </c>
     </row>
@@ -876,22 +876,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,62</t>
+          <t>1,61</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,88</t>
+          <t>-1,77</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,88</t>
+          <t>0,9</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,71</t>
+          <t>-2,03</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -901,22 +901,22 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>5,25%</t>
+          <t>5,22%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-2,81%</t>
+          <t>-5,37%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>6,65%</t>
+          <t>3,1%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-2,5%</t>
+          <t>-6,93%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
@@ -934,22 +934,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-11,64; 13,54</t>
+          <t>-11,65; 12,36</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-14,13; 11,0</t>
+          <t>-17,45; 10,4</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-10,25; 13,36</t>
+          <t>-9,98; 12,2</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-13,2; 9,57</t>
+          <t>-15,65; 8,47</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -959,22 +959,22 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-30,22; 58,85</t>
+          <t>-29,37; 52,65</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-36,26; 46,45</t>
+          <t>-38,83; 40,47</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-29,21; 64,12</t>
+          <t>-27,42; 52,13</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-36,9; 43,99</t>
+          <t>-41,64; 38,77</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
@@ -1001,17 +1001,17 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,98</t>
+          <t>2,21</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3,55</t>
+          <t>3,57</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>4,15</t>
+          <t>4,05</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1026,22 +1026,22 @@
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>5,9%</t>
+          <t>6,58%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>10,98%</t>
+          <t>11,1%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>13,51%</t>
+          <t>13,18%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>3,74%</t>
+          <t>3,73%</t>
         </is>
       </c>
     </row>
@@ -1054,52 +1054,59 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,43; 4,71</t>
+          <t>-2,77; 5,05</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,91; 5,99</t>
+          <t>-2,01; 6,31</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,1; 7,19</t>
+          <t>-0,14; 7,18</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,36; 7,94</t>
+          <t>0,16; 7,85</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-3,35; 5,39</t>
+          <t>-2,98; 5,51</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-6,94; 15,01</t>
+          <t>-7,6; 16,31</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-7,84; 19,6</t>
+          <t>-5,31; 20,59</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 23,71</t>
+          <t>-0,44; 23,65</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,06; 28,31</t>
+          <t>0,49; 27,71</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>-9,32; 17,76</t>
+          <t>-8,83; 18,73</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P7B_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P7B_R-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -634,359 +643,235 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>2,21</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>4,36</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>2,94</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>4,93</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>0,64</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>6,97%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>14,13%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>9,41%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>16,94%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>2,06%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>2.208225226362742</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>4.292254226404163</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>2.895276104711531</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>5.000625996590752</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>0.6384537649911426</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>0.06965026130159703</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>0.1391628648254578</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.09161434085520775</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>0.1713038724791159</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>0.02055044775685917</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-2,94; 7,12</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-1,34; 9,81</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-2,51; 7,89</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-0,7; 9,43</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-3,89; 5,93</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-8,19; 24,61</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-3,71; 35,59</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-7,26; 27,71</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>-2,17; 36,4</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>-11,44; 20,61</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-2.936644726486084</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-1.805907889035885</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-2.571026161235668</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-0.7788794293992766</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-3.889828228077194</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.08191680696007966</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.05366783434707659</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.07559434658425586</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>-0.02482779394322516</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>-0.1144005817808676</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>7.120502403404791</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>10.05676965200778</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>7.734745061532414</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>9.443951147534182</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>5.930896000663037</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>0.2461389783279675</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>0.3638584568396165</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>0.2694218516774208</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>0.3663216870203975</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>0.2061438025151377</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-0,04</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>0,88</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>5,32</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>4,93</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>3,94</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-0,11%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>2,38%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>15,55%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>14,89%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>10,67%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-6,77; 5,58</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-6,65; 7,79</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-1,31; 10,97</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-1,4; 11,14</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-6,36; 13,6</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-16,69; 16,94</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-15,98; 23,51</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-3,48; 35,38</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-4,49; 36,43</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-14,91; 43,31</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-0.04086383344610311</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0.9701610960771545</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>5.167990727261756</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>5.10734049522219</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>3.942220588587197</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>-0.001126461175053291</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0.02678987952400994</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.1496913475320486</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>0.1542598980264339</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>0.1066973637473228</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>1,61</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-1,77</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,9</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-2,03</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>5,22%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-5,37%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>3,1%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>-6,93%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-6.765175271943013</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-6.693285924584834</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-1.413590600788815</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-1.359235838592383</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-6.363759722870219</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.1669165924577307</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.1607293937944324</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.03835518157261721</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>-0.03667805901933405</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>-0.1491480672763077</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-11,65; 12,36</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-17,45; 10,4</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-9,98; 12,2</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-15,65; 8,47</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-29,37; 52,65</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-38,83; 40,47</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-27,42; 52,13</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-41,64; 38,77</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>5.582449661772612</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>8.129856269930606</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>10.93456528878249</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>11.5004136444337</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>13.60344312058973</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>0.1694006829485786</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>0.25216529572853</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>0.3526579707154303</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>0.3744623888752691</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>0.43311684659885</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -994,117 +879,221 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>1,22</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>2,21</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>3,57</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>4,05</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>1,21</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>3,64%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>6,58%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>11,1%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>13,18%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>3,73%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="n">
+        <v>1.607559075220971</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-4.479877187175768</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>1.44340689317301</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-1.188924654820572</v>
+      </c>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="6" t="n">
+        <v>0.05224263749814009</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>-0.1269925861524322</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0.04986510398678402</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>-0.04089079165296254</v>
+      </c>
+      <c r="L10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-2,77; 5,05</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-2,01; 6,31</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-0,14; 7,18</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>0,16; 7,85</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-2,98; 5,51</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-7,6; 16,31</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-5,31; 20,59</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-0,44; 23,65</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>0,49; 27,71</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>-8,83; 18,73</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-11.64683352421109</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-20.28051763862211</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-8.862201816961884</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-14.26423609721173</v>
+      </c>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="6" t="n">
+        <v>-0.2936509094063091</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.4394260397262899</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.2584380205294352</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-0.3849454442155137</v>
+      </c>
+      <c r="L11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>12.35706349635196</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>8.151200203830138</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>12.31646011226952</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>9.735269127617286</v>
+      </c>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="6" t="n">
+        <v>0.5264527390692972</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>0.3002613485467527</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>0.5284887174502572</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>0.4495797769107748</v>
+      </c>
+      <c r="L12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>1.216337674910889</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>1.890485121157387</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>3.557500489276133</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>4.256498275522263</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>1.211908180722343</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>0.03638694013678451</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.05637418957990919</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.1096436563587127</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>0.1384245818118153</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>0.03731423860552629</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-2.769689167063131</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-2.309206072653183</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-0.1822134964999695</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>0.2030831833300384</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-2.977167095951578</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.07597439929483618</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.06494458442457653</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.005527247652663357</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>0.006225919509739081</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>-0.08826817353042482</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>5.045647019021991</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>6.028013025962817</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>7.241169554862181</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>8.041895839085422</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>5.506506925992736</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>0.163127024053358</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.1892836642327715</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.2372758925029513</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>0.2856742881681842</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>0.1873349000611838</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -1112,13 +1101,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
